--- a/calculation-engine/engine-tests/engine-it-graph/src/test/resources/standard_excel_files/Error_Null.xlsx
+++ b/calculation-engine/engine-tests/engine-it-graph/src/test/resources/standard_excel_files/Error_Null.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\SpreadSheet\master\calculation-engine\engine-core-demo\src\main\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\spreadsheet\CalculationEngine\calculation-engine\engine-tests\engine-it-graph\src\test\resources\standard_excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -407,7 +407,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,15 +483,15 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E6" s="2" t="e">
-        <f>SUM(A2:A5 B2:D3)</f>
-        <v>#NULL!</v>
+      <c r="E6" s="2">
+        <f>SUM(A2:A5)</f>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E10">
-        <f>SUM(B3:B5 A4:C4)</f>
-        <v>8</v>
+        <f>SUM(B3:B5)</f>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -509,6 +509,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010000BBA6CFB0E2DE4B9D0F8FC00657BC00" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b5fa52e5d42efb553dd3c6ab2e94e30b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -622,20 +628,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36FB05C8-0812-4D36-A952-DB9DBD866104}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36FB05C8-0812-4D36-A952-DB9DBD866104}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21B5FF3F-31F1-485E-99E4-36709AF83E16}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7021BB48-242A-4B96-8C8D-5BFE8CA119D7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7021BB48-242A-4B96-8C8D-5BFE8CA119D7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21B5FF3F-31F1-485E-99E4-36709AF83E16}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>